--- a/Thermistor_Board/Temp_BOM_No3p5mmJack.xlsx
+++ b/Thermistor_Board/Temp_BOM_No3p5mmJack.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t xml:space="preserve">Item</t>
   </si>
@@ -144,7 +144,7 @@
     <t xml:space="preserve">C1591</t>
   </si>
   <si>
-    <t xml:space="preserve">R1, R2, R3, R4, R5, R6, R7, R8, R9</t>
+    <t xml:space="preserve">R1,  R5, R8</t>
   </si>
   <si>
     <t xml:space="preserve">YAGEO</t>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t xml:space="preserve">C98220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2, R3, R4, R6, R9, R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0402FR-07100KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C60491</t>
   </si>
   <si>
     <t xml:space="preserve">C1</t>
@@ -205,11 +217,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -265,6 +278,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -341,7 +361,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -367,6 +387,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -448,17 +472,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="91.46"/>
@@ -470,9 +494,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="55.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="55.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,21 +583,17 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <f aca="false">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -582,14 +602,13 @@
       <c r="G4" s="5" t="n">
         <v>603</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <f aca="false">A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -599,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>24</v>
@@ -617,7 +636,6 @@
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <f aca="false">A5+1</f>
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -627,21 +645,54 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>603</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>603</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="n">
+        <f aca="false">SUM(C2:C7)</f>
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -651,14 +702,17 @@
     <hyperlink ref="D3" r:id="rId4" display="YAGEO"/>
     <hyperlink ref="E3" r:id="rId5" display="RC0603FR-0710KL"/>
     <hyperlink ref="H3" r:id="rId6" display="C98220"/>
-    <hyperlink ref="D4" r:id="rId7" display="Samsung Electro-Mechanics"/>
-    <hyperlink ref="E4" r:id="rId8" display="CL10A106MA8NRNC"/>
-    <hyperlink ref="H4" r:id="rId9" display="C96446"/>
-    <hyperlink ref="D5" r:id="rId10" display="YAGEO"/>
-    <hyperlink ref="E5" r:id="rId11" display="RC0603FR-071KL"/>
-    <hyperlink ref="H5" r:id="rId12" display="C22548"/>
-    <hyperlink ref="E6" r:id="rId13" display="XL-1608UBC-04"/>
-    <hyperlink ref="H6" r:id="rId14" display="C965807"/>
+    <hyperlink ref="D4" r:id="rId7" display="YAGEO"/>
+    <hyperlink ref="E4" r:id="rId8" display="RC0402FR-07100KL"/>
+    <hyperlink ref="H4" r:id="rId9" display="C60491"/>
+    <hyperlink ref="D5" r:id="rId10" display="Samsung Electro-Mechanics"/>
+    <hyperlink ref="E5" r:id="rId11" display="CL10A106MA8NRNC"/>
+    <hyperlink ref="H5" r:id="rId12" display="C96446"/>
+    <hyperlink ref="D6" r:id="rId13" display="YAGEO"/>
+    <hyperlink ref="E6" r:id="rId14" display="RC0603FR-071KL"/>
+    <hyperlink ref="H6" r:id="rId15" display="C22548"/>
+    <hyperlink ref="E7" r:id="rId16" display="XL-1608UBC-04"/>
+    <hyperlink ref="H7" r:id="rId17" display="C965807"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
